--- a/output/Tables/Log linear/HIA_sex_10000steps.xlsx
+++ b/output/Tables/Log linear/HIA_sex_10000steps.xlsx
@@ -461,11 +461,15 @@
       <c r="D2">
         <v>502.036610155762</v>
       </c>
-      <c r="E2">
-        <v>596.80663598159</v>
-      </c>
-      <c r="F2">
-        <v>7161.679631779037</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="G2">
         <v>5629.149147479025</v>
@@ -474,10 +478,10 @@
         <v>682.243542690758</v>
       </c>
       <c r="I2">
-        <v>687.9237835670802</v>
+        <v>74.47900697250085</v>
       </c>
       <c r="J2">
-        <v>11557.20066550441</v>
+        <v>893.7480836700091</v>
       </c>
       <c r="K2">
         <v>107474786.0342506</v>
@@ -486,19 +490,19 @@
         <v>13412410.07692134</v>
       </c>
       <c r="M2">
-        <v>15944286.08688421</v>
+        <v>83.37522188628115</v>
       </c>
       <c r="N2">
-        <v>191331433.0426089</v>
+        <v>1400.71355706623</v>
       </c>
       <c r="O2">
         <v>748676836.6147102</v>
       </c>
       <c r="P2">
-        <v>91493863.21442167</v>
+        <v>9905707.927342614</v>
       </c>
       <c r="Q2">
-        <v>1537107688.512086</v>
+        <v>118868495.1281112</v>
       </c>
     </row>
     <row r="3">
@@ -518,11 +522,15 @@
       <c r="D3">
         <v>871.2439009400863</v>
       </c>
-      <c r="E3">
-        <v>1509.292080786865</v>
-      </c>
-      <c r="F3">
-        <v>12451.65966649155</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
       <c r="G3">
         <v>6737.117875480893</v>
@@ -531,10 +539,10 @@
         <v>838.055070343231</v>
       </c>
       <c r="I3">
-        <v>1177.674542164704</v>
+        <v>184.8808001542227</v>
       </c>
       <c r="J3">
-        <v>13602.2364144274</v>
+        <v>1525.266601272336</v>
       </c>
       <c r="K3">
         <v>190017091.7818064</v>
@@ -543,19 +551,19 @@
         <v>23276152.05751535</v>
       </c>
       <c r="M3">
-        <v>40322247.23030175</v>
+        <v>146.4953025190795</v>
       </c>
       <c r="N3">
-        <v>332658539.6499889</v>
+        <v>1692.032617776404</v>
       </c>
       <c r="O3">
         <v>896036677.4389586</v>
       </c>
       <c r="P3">
-        <v>156630714.1079056</v>
+        <v>24589146.42051162</v>
       </c>
       <c r="Q3">
-        <v>1809097443.118844</v>
+        <v>202860457.9692207</v>
       </c>
     </row>
     <row r="4">
@@ -575,11 +583,15 @@
       <c r="D4">
         <v>1530.075091428808</v>
       </c>
-      <c r="E4">
-        <v>6168.210734974839</v>
-      </c>
-      <c r="F4">
-        <v>17623.45924278526</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="G4">
         <v>10641.77625805965</v>
@@ -588,10 +600,10 @@
         <v>1332.611305106909</v>
       </c>
       <c r="I4">
-        <v>4672.34263096004</v>
+        <v>816.0060688065618</v>
       </c>
       <c r="J4">
-        <v>18774.77309321913</v>
+        <v>2331.445910875891</v>
       </c>
       <c r="K4">
         <v>263100563.8964186</v>
@@ -600,19 +612,19 @@
         <v>34806148.17982254</v>
       </c>
       <c r="M4">
-        <v>140314457.7992077</v>
+        <v>585.0918550025619</v>
       </c>
       <c r="N4">
-        <v>400898450.8548793</v>
+        <v>2351.061915616972</v>
       </c>
       <c r="O4">
         <v>1415356242.321933</v>
       </c>
       <c r="P4">
-        <v>621421569.9176853</v>
+        <v>108528807.1512727</v>
       </c>
       <c r="Q4">
-        <v>2497044821.398144</v>
+        <v>310082306.1464935</v>
       </c>
     </row>
     <row r="5">
@@ -632,11 +644,15 @@
       <c r="D5">
         <v>815.3613010218787</v>
       </c>
-      <c r="E5">
-        <v>3487.288064859011</v>
-      </c>
-      <c r="F5">
-        <v>9963.680185311468</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
       <c r="G5">
         <v>3707.163733691815</v>
@@ -645,10 +661,10 @@
         <v>458.7730694723062</v>
       </c>
       <c r="I5">
-        <v>1627.654888887457</v>
+        <v>434.841252975736</v>
       </c>
       <c r="J5">
-        <v>6540.37035093291</v>
+        <v>1242.403579930674</v>
       </c>
       <c r="K5">
         <v>148747748.0513476</v>
@@ -657,19 +673,19 @@
         <v>18547838.8756457</v>
       </c>
       <c r="M5">
-        <v>79328828.89941248</v>
+        <v>201.4273668654165</v>
       </c>
       <c r="N5">
-        <v>226653796.8554648</v>
+        <v>809.3912211411919</v>
       </c>
       <c r="O5">
         <v>493052776.5810114</v>
       </c>
       <c r="P5">
-        <v>216478100.2220317</v>
+        <v>57833886.6457729</v>
       </c>
       <c r="Q5">
-        <v>869869256.674077</v>
+        <v>165239676.1307796</v>
       </c>
     </row>
     <row r="6">
@@ -689,11 +705,15 @@
       <c r="D6">
         <v>3667.47786358858</v>
       </c>
-      <c r="E6">
-        <v>20427.0276311882</v>
-      </c>
-      <c r="F6">
-        <v>54472.07368316857</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="G6">
         <v>47901.08277013614</v>
@@ -702,10 +722,10 @@
         <v>5858.10250999997</v>
       </c>
       <c r="I6">
-        <v>24916.86632075588</v>
+        <v>2496.523775176217</v>
       </c>
       <c r="J6">
-        <v>107643.5832171397</v>
+        <v>6657.396733803234</v>
       </c>
       <c r="K6">
         <v>1409415484.578958</v>
@@ -714,19 +734,19 @@
         <v>172254100.2970285</v>
       </c>
       <c r="M6">
-        <v>959416633.7816521</v>
+        <v>3047.228761725537</v>
       </c>
       <c r="N6">
-        <v>2558444356.751066</v>
+        <v>13164.36098231288</v>
       </c>
       <c r="O6">
         <v>6370844008.428107</v>
       </c>
       <c r="P6">
-        <v>3313943220.660532</v>
+        <v>332037662.0984369</v>
       </c>
       <c r="Q6">
-        <v>14316596567.87958</v>
+        <v>885433765.5958302</v>
       </c>
     </row>
     <row r="7">
@@ -746,11 +766,15 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
       <c r="G7">
         <v>0</v>
@@ -803,11 +827,15 @@
       <c r="D8">
         <v>5452.461782298466</v>
       </c>
-      <c r="E8">
-        <v>34442.98597619912</v>
-      </c>
-      <c r="F8">
-        <v>72330.27055001816</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="G8">
         <v>33368.9859145095</v>
@@ -816,10 +844,10 @@
         <v>4055.232517677492</v>
       </c>
       <c r="I8">
-        <v>20147.40030190202</v>
+        <v>4306.350161031802</v>
       </c>
       <c r="J8">
-        <v>67887.75427640148</v>
+        <v>9043.335338166788</v>
       </c>
       <c r="K8">
         <v>913101970.2817346</v>
@@ -828,19 +856,19 @@
         <v>114163644.7977654</v>
       </c>
       <c r="M8">
-        <v>721167240.3696594</v>
+        <v>2448.452975474224</v>
       </c>
       <c r="N8">
-        <v>1514451204.776278</v>
+        <v>8250.194638790505</v>
       </c>
       <c r="O8">
         <v>4438075126.629763</v>
       </c>
       <c r="P8">
-        <v>2679604240.152969</v>
+        <v>572744571.4172297</v>
       </c>
       <c r="Q8">
-        <v>9029071318.761396</v>
+        <v>1202763599.976183</v>
       </c>
     </row>
     <row r="9">
@@ -860,11 +888,15 @@
       <c r="D9">
         <v>8224.916402704705</v>
       </c>
-      <c r="E9">
-        <v>53110.76419962098</v>
-      </c>
-      <c r="F9">
-        <v>111532.6048192046</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
       <c r="G9">
         <v>46815.45616620476</v>
@@ -873,10 +905,10 @@
         <v>5854.820941794957</v>
       </c>
       <c r="I9">
-        <v>28266.05933165457</v>
+        <v>6496.032707693657</v>
       </c>
       <c r="J9">
-        <v>95244.01468751268</v>
+        <v>13641.66868615668</v>
       </c>
       <c r="K9">
         <v>1407994750.146071</v>
@@ -885,19 +917,19 @@
         <v>172213299.6398311</v>
       </c>
       <c r="M9">
-        <v>1112033180.811668</v>
+        <v>3535.00167828027</v>
       </c>
       <c r="N9">
-        <v>2335269679.704508</v>
+        <v>11911.37922042985</v>
       </c>
       <c r="O9">
         <v>6226455670.105232</v>
       </c>
       <c r="P9">
-        <v>3759385891.110058</v>
+        <v>863972350.1232564</v>
       </c>
       <c r="Q9">
-        <v>12667453953.43919</v>
+        <v>1814341935.258839</v>
       </c>
     </row>
     <row r="10">
@@ -917,11 +949,15 @@
       <c r="D10">
         <v>7564.695528045842</v>
       </c>
-      <c r="E10">
-        <v>45011.2307230792</v>
-      </c>
-      <c r="F10">
-        <v>125031.1964529978</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="G10">
         <v>100837.2352567041</v>
@@ -930,10 +966,10 @@
         <v>12288.10990210664</v>
       </c>
       <c r="I10">
-        <v>54089.0431800315</v>
+        <v>5478.922258818653</v>
       </c>
       <c r="J10">
-        <v>254346.7839679733</v>
+        <v>15219.2284967185</v>
       </c>
       <c r="K10">
         <v>2269220057.44987</v>
@@ -942,19 +978,19 @@
         <v>276217292.5110658</v>
       </c>
       <c r="M10">
-        <v>1643540078.622514</v>
+        <v>6591.336081398849</v>
       </c>
       <c r="N10">
-        <v>4565389107.284766</v>
+        <v>30994.91201528201</v>
       </c>
       <c r="O10">
         <v>13411352289.14164</v>
       </c>
       <c r="P10">
-        <v>7193842742.944189</v>
+        <v>728696660.4228809</v>
       </c>
       <c r="Q10">
-        <v>33828122267.74045</v>
+        <v>2024157390.06356</v>
       </c>
     </row>
     <row r="11">
@@ -974,11 +1010,15 @@
       <c r="D11">
         <v>8795.013962452012</v>
       </c>
-      <c r="E11">
-        <v>51538.48277129859</v>
-      </c>
-      <c r="F11">
-        <v>143162.4521424959</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
       <c r="G11">
         <v>91065.53321617433</v>
@@ -987,10 +1027,10 @@
         <v>11497.68779093917</v>
       </c>
       <c r="I11">
-        <v>48847.50703252506</v>
+        <v>6370.011534085788</v>
       </c>
       <c r="J11">
-        <v>229699.1329135303</v>
+        <v>17694.47648357163</v>
       </c>
       <c r="K11">
         <v>2598288403.947119</v>
@@ -999,19 +1039,19 @@
         <v>321141139.8249729</v>
       </c>
       <c r="M11">
-        <v>1881876159.911191</v>
+        <v>6167.354051422021</v>
       </c>
       <c r="N11">
-        <v>5227433777.531102</v>
+        <v>29001.1909315888</v>
       </c>
       <c r="O11">
         <v>12111715917.75119</v>
       </c>
       <c r="P11">
-        <v>6496718435.325832</v>
+        <v>847211534.0334098</v>
       </c>
       <c r="Q11">
-        <v>30549984677.49953</v>
+        <v>2353365372.315027</v>
       </c>
     </row>
     <row r="12">
@@ -1031,11 +1071,15 @@
       <c r="D12">
         <v>7738.287990641663</v>
       </c>
-      <c r="E12">
-        <v>25940.14048183311</v>
-      </c>
-      <c r="F12">
-        <v>85602.46359004876</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="G12">
         <v>643122.7106924269</v>
@@ -1044,10 +1088,10 @@
         <v>78755.59337678165</v>
       </c>
       <c r="I12">
-        <v>278664.3259681037</v>
+        <v>3352.991227346854</v>
       </c>
       <c r="J12">
-        <v>919592.2756947404</v>
+        <v>11064.87105024462</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1056,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>34124.70743091953</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>112611.5345220343</v>
       </c>
       <c r="O12">
         <v>85535320522.09277</v>
       </c>
       <c r="P12">
-        <v>37062355353.75779</v>
+        <v>445947833.2371317</v>
       </c>
       <c r="Q12">
-        <v>122305772667.4005</v>
+        <v>1471627849.682534</v>
       </c>
     </row>
     <row r="13">
@@ -1088,11 +1132,15 @@
       <c r="D13">
         <v>11290.0872214365</v>
       </c>
-      <c r="E13">
-        <v>39590.66548781394</v>
-      </c>
-      <c r="F13">
-        <v>130649.1961097861</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
       <c r="G13">
         <v>839028.3305801238</v>
@@ -1101,10 +1149,10 @@
         <v>104962.7689346958</v>
       </c>
       <c r="I13">
-        <v>363550.0042558321</v>
+        <v>4891.981721956874</v>
       </c>
       <c r="J13">
-        <v>1199715.014044241</v>
+        <v>16143.53968245768</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1113,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>45480.24625882231</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>150084.8126541135</v>
       </c>
       <c r="O13">
         <v>111590767967.1565</v>
       </c>
       <c r="P13">
-        <v>48352150566.02567</v>
+        <v>650633569.0202643</v>
       </c>
       <c r="Q13">
-        <v>159562096867.884</v>
+        <v>2147090777.766871</v>
       </c>
     </row>
   </sheetData>
